--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="Rb6ac41a0de104cfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="Rf8cc6ea52af04ac3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc863c275abda437c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd39b958569c1488c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R324249a8455b454e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R315a991fa6564446"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="Rf8cc6ea52af04ac3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="Rb390ad28f5624eff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd39b958569c1488c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d0cf779a62b4bc5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R315a991fa6564446"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b6e0aa9ebdd4e3c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="Rb390ad28f5624eff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R43b9eeb5bf9540b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d0cf779a62b4bc5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15a918119f114865"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b6e0aa9ebdd4e3c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7ef395fb30e4e9e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R43b9eeb5bf9540b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R33d31bf1d06240f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15a918119f114865"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf79eadb6a88c49f9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7ef395fb30e4e9e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cf91ee578f84e9d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R33d31bf1d06240f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R9bdc06393b5548be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf79eadb6a88c49f9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R157a21a8ccf14c7e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5cf91ee578f84e9d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raaa84507c2d946db"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R9bdc06393b5548be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R37a963b003de42bb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R157a21a8ccf14c7e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R653b57b63f964132"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Raaa84507c2d946db"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd40eecab1e54b65"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R37a963b003de42bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R810c73656f254969"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R653b57b63f964132"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8680e5330ba640a3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbd40eecab1e54b65"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf219efdbc4554195"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R810c73656f254969"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R78d4e3790c824ae1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8680e5330ba640a3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5fe66b6f05245d2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf219efdbc4554195"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18b8e65b6e424428"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R78d4e3790c824ae1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R47ed4e753ffe49ae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5fe66b6f05245d2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6ffdd0a1b77f479a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18b8e65b6e424428"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc06fd7521a2440ba"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R47ed4e753ffe49ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R5162f9531583463c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6ffdd0a1b77f479a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5a3539405844f2f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc06fd7521a2440ba"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d96e2f36eef4ef2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R5162f9531583463c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R3463261c7e734eb8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5a3539405844f2f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc9a23b6c83744a22"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0d96e2f36eef4ef2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb369d0cfac684138"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R3463261c7e734eb8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R3fb6c8ea2159415f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc9a23b6c83744a22"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R395d8f6adbb442d5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb369d0cfac684138"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc9267f613e54be9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/101_BarChartWithoutYAxisLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R3fb6c8ea2159415f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Sales" sheetId="1" r:id="R29d2162b26cb4991"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -233,7 +233,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R395d8f6adbb442d5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1169b58ceae94222"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -294,6 +294,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbc9267f613e54be9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d4e290ae3b34ecb"/>
 </x:worksheet>
 </file>